--- a/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>OXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,156 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42763</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42399</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42035</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41671</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41307</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40936</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1122800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1107500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1086200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1022600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>969300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>920300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>849900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>855500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>758900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E9" s="3">
         <v>456400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>459700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>428100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>396700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>388400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>354500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>369500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>329100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>659800</v>
+      </c>
+      <c r="E10" s="3">
         <v>651100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>626500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>594500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>572500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>531900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>495400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>486000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>429800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,8 +827,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,9 +857,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,39 +890,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>9100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,12 +953,15 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +971,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1029100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1016900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>932700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>871800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>827500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>753600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>795700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>699100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E18" s="3">
         <v>90600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>86000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>89900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>97500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>96300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>59800</v>
       </c>
       <c r="K18" s="3">
         <v>59800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>59800</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,8 +1052,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,129 +1082,144 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E21" s="3">
         <v>133100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>132100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>133900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>130500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>130200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>86200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>86900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E23" s="3">
         <v>88300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>82900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>86500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>95100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>89600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>92400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>50900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E24" s="3">
         <v>22000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1247,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E26" s="3">
         <v>66300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>54500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>58500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>55400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E27" s="3">
         <v>66300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>54500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>58500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>55400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,9 +1346,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,29 +1359,32 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>11900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-28000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-8000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-10100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,9 +1445,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1409,39 +1478,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E33" s="3">
         <v>66300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>65100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>45800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>45300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1544,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E35" s="3">
         <v>66300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>65100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>45800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>45300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42763</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42399</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42035</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41671</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41307</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40936</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,16 +1648,17 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>6300</v>
       </c>
       <c r="F41" s="3">
         <v>6300</v>
@@ -1581,20 +1667,23 @@
         <v>6300</v>
       </c>
       <c r="H41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1622,129 +1711,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E43" s="3">
         <v>69000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>62800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>59700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E44" s="3">
         <v>160700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>126800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>142200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>129100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>120600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>143700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>109600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>103400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E45" s="3">
         <v>31800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>92500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>288800</v>
+      </c>
+      <c r="E46" s="3">
         <v>269800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>236100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>231600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>216800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>258500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>271000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>222400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>215300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1772,69 +1876,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>478700</v>
+      </c>
+      <c r="E48" s="3">
         <v>192600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>193500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>193900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>184100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>292100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>141500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>128900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>93200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E49" s="3">
         <v>242800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>245600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>235300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>161000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>309600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>190400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>181600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>181700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2008,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E52" s="3">
         <v>22100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>49500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1033400</v>
+      </c>
+      <c r="E54" s="3">
         <v>727300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>699900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>685200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>582700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>622400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>627300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>556100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>509200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,38 +2140,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E57" s="3">
         <v>81600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>68300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>72800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>75500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>90800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>89100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2058,141 +2191,156 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E59" s="3">
         <v>60600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>87200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>177800</v>
+      </c>
+      <c r="E60" s="3">
         <v>142200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>135000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>131400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>128900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>159900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>133000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>124300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>117600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>13000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>91500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>104800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>137600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>108600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>103400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E62" s="3">
         <v>93700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>70800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>61400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>96500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>93400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2434,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>504800</v>
+      </c>
+      <c r="E66" s="3">
         <v>248900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>270100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>309000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>248300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>331800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>367100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>326200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>305100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2614,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>366800</v>
+      </c>
+      <c r="E72" s="3">
         <v>323500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>280400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>233500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>199200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>185200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>153300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>132900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>111600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>528600</v>
+      </c>
+      <c r="E76" s="3">
         <v>478400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>429800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>376100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>334400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>290600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>260200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>229800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>204100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2812,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42763</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42399</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42035</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41671</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41307</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40936</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E81" s="3">
         <v>66300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>65100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>45800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>45300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2901,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E83" s="3">
         <v>42500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3096,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E89" s="3">
         <v>96400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>118600</v>
       </c>
       <c r="F89" s="3">
         <v>118600</v>
       </c>
       <c r="G89" s="3">
+        <v>118600</v>
+      </c>
+      <c r="H89" s="3">
         <v>105400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>95400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>52700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3147,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,9 +3243,12 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3027,29 +3256,32 @@
         <v>-37400</v>
       </c>
       <c r="E94" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-54300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-146500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-62500</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,38 +3294,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-23100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-18200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-18100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-16600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-13900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-11900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-9900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,97 +3423,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-56800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-91500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-47600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>OXM</t>
   </si>
@@ -2925,8 +2925,8 @@
       <c r="I83" s="3">
         <v>37600</v>
       </c>
-      <c r="J83" s="3">
-        <v>33900</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>26300</v>
@@ -3270,8 +3270,8 @@
       <c r="I94" s="3">
         <v>-50400</v>
       </c>
-      <c r="J94" s="3">
-        <v>-59100</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-62500</v>
@@ -3450,8 +3450,8 @@
       <c r="I100" s="3">
         <v>-47600</v>
       </c>
-      <c r="J100" s="3">
-        <v>6900</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-10600</v>
@@ -3483,8 +3483,8 @@
       <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
-        <v>400</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>

--- a/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>OXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42763</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42399</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42035</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41671</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41307</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40936</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>748800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1122800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1107500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1086200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1022600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>969300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>920300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>849900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>855500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>758900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>319600</v>
+      </c>
+      <c r="E9" s="3">
         <v>463000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>456400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>459700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>428100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>396700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>388400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>354500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>369500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>329100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>429200</v>
+      </c>
+      <c r="E10" s="3">
         <v>659800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>651100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>626500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>594500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>572500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>531900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>495400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>486000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>429800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +874,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,75 +910,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E14" s="3">
         <v>2800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>9100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>872700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1029100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1016900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>932700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>871800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>827500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>753600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>795700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>699100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-123800</v>
+      </c>
+      <c r="E18" s="3">
         <v>93700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>90600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>86000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>89900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>97500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>92800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>96300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>59800</v>
       </c>
       <c r="L18" s="3">
         <v>59800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>59800</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,8 +1086,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,141 +1119,156 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="E21" s="3">
         <v>134000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>133100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>132100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>133900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>130500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>130200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>86200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>86900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="E23" s="3">
         <v>92400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>82900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>86500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>95100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>89600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>92400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E24" s="3">
         <v>23900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="E26" s="3">
         <v>68500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>66300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>54500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>58500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>55400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>29200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="E27" s="3">
         <v>68500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>66300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>54500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>58500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>55400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>29200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,42 +1407,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>11900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-28000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-8000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-10100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,9 +1515,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1481,42 +1551,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="E33" s="3">
         <v>68500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>66300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>65100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>52500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>45800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="E35" s="3">
         <v>68500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>66300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>65100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>52500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>45800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42763</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42399</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42035</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41671</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41307</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40936</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,19 +1735,20 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E41" s="3">
         <v>52500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6300</v>
       </c>
       <c r="G41" s="3">
         <v>6300</v>
@@ -1670,20 +1757,23 @@
         <v>6300</v>
       </c>
       <c r="I41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1714,141 +1804,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E43" s="3">
         <v>58700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>69000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>67500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>75300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>62800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>59700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E44" s="3">
         <v>152200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>160700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>126800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>142200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>129100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>120600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>143700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>109600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>103400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E45" s="3">
         <v>25400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>92500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>258300</v>
+      </c>
+      <c r="E46" s="3">
         <v>288800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>269800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>236100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>231600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>216800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>258500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>271000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>222400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>215300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,75 +1984,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>393500</v>
+      </c>
+      <c r="E48" s="3">
         <v>478700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>192600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>193500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>193900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>184100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>292100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>141500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>128900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>93200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E49" s="3">
         <v>241600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>242800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>245600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>235300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>161000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>309600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>190400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>181600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>181700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E52" s="3">
         <v>24300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>49500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>865600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1033400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>727300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>699900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>685200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>582700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>622400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>627300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>556100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>509200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,41 +2271,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E57" s="3">
         <v>65500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>81600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>68300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>68300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>72800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>75500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>90800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>89100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2194,87 +2328,96 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E59" s="3">
         <v>112300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>87200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E60" s="3">
         <v>177800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>142200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>135000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>131400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>128900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>159900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>133000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>124300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>117600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2282,65 +2425,71 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>13000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>91500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>104800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>137600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>108600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>103400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E62" s="3">
         <v>327000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>93700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>89300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>70800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>61400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>93400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>459900</v>
+      </c>
+      <c r="E66" s="3">
         <v>504800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>248900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>270100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>309000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>248300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>331800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>367100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>326200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>305100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E72" s="3">
         <v>366800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>323500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>280400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>233500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>199200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>185200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>153300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>132900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>111600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>405700</v>
+      </c>
+      <c r="E76" s="3">
         <v>528600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>478400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>429800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>376100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>334400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>290600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>260200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>229800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>204100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42763</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42399</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42035</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41671</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41307</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40936</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="E81" s="3">
         <v>68500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>66300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>65100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>52500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>45800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E83" s="3">
         <v>40300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37600</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26300</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E89" s="3">
         <v>121900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>96400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>118600</v>
       </c>
       <c r="G89" s="3">
         <v>118600</v>
       </c>
       <c r="H89" s="3">
+        <v>118600</v>
+      </c>
+      <c r="I89" s="3">
         <v>105400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>95400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>52700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>61700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37400</v>
+        <v>-34700</v>
       </c>
       <c r="E94" s="3">
         <v>-37400</v>
       </c>
       <c r="F94" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-54300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-146500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50400</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-62500</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-23100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-18200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-18100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-16600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-11900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-41300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-56800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-64700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-91500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-47600</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10600</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E102" s="3">
         <v>44100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-30700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>OXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,181 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42763</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42399</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42035</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41671</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41307</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40936</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1142100</v>
+      </c>
+      <c r="E8" s="3">
         <v>748800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1122800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1107500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1086200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1022600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>969300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>920300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>849900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>855500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>758900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>405800</v>
+      </c>
+      <c r="E9" s="3">
         <v>319600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>463000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>456400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>459700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>428100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>396700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>388400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>354500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>369500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>329100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>736300</v>
+      </c>
+      <c r="E10" s="3">
         <v>429200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>659800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>651100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>626500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>594500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>572500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>531900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>495400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>486000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>429800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +854,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,9 +890,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,53 +929,59 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>60500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4200</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>9100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -976,18 +998,21 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>976600</v>
+      </c>
+      <c r="E17" s="3">
         <v>872700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1029100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1016900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>932700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>871800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>827500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>753600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>795700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>699100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-123800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>93700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>90600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>86000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>89900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>97500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>92800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>59800</v>
       </c>
       <c r="M18" s="3">
         <v>59800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>59800</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,8 +1119,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1122,153 +1155,168 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-83800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>134000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>133100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>132100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>133900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>130500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>130200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>86200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>86900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-125900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>92400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>88300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>82900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>86500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>95100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>92400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-30200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-95700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>68500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>54500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>58500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-95700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>68500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>66300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>54500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>58500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>53800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>29200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1410,45 +1467,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>11900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-2000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-28000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-8000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-10100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,9 +1584,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1554,45 +1623,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-95700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>68500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>66300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>65100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-95700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>68500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>66300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>65100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42763</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42399</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42035</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41671</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41307</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40936</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,22 +1821,23 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E41" s="3">
         <v>66000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>6300</v>
       </c>
       <c r="H41" s="3">
         <v>6300</v>
@@ -1760,43 +1846,46 @@
         <v>6300</v>
       </c>
       <c r="J41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>164900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1807,153 +1896,168 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E43" s="3">
         <v>48400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>59100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>75300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>62800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>59700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E44" s="3">
         <v>123500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>152200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>160700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>126800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>142200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>129100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>120600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>143700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>109600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>103400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E45" s="3">
         <v>20400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>92500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400300</v>
+      </c>
+      <c r="E46" s="3">
         <v>258300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>288800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>269800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>236100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>231600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>216800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>258500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>271000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>222400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>215300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1987,81 +2091,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>347500</v>
+      </c>
+      <c r="E48" s="3">
         <v>393500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>478700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>192600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>193500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>193900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>184100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>292100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>141500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>128900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>93200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E49" s="3">
         <v>180100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>242800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>245600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>235300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>161000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>309600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>190400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>181600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>181700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,45 +2247,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E52" s="3">
         <v>33700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>49500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>957600</v>
+      </c>
+      <c r="E54" s="3">
         <v>865600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1033400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>727300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>699900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>685200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>582700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>622400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>627300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>556100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>509200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,152 +2401,165 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E57" s="3">
         <v>71100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>81600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>68300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>76800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>68300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>75500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>90800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>89100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E59" s="3">
         <v>125100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>112300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>87200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E60" s="3">
         <v>196300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>177800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>131400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>128900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>159900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>133000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>124300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>117600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2428,68 +2570,74 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>13000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>91500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>104800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>137600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>108600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>103400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E62" s="3">
         <v>263700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>327000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>93700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>70800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>61400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>93400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2559,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>450000</v>
+      </c>
+      <c r="E66" s="3">
         <v>459900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>504800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>248900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>270100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>309000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>248300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>331800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>367100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>326200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>305100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2755,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>331200</v>
+      </c>
+      <c r="E72" s="3">
         <v>236000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>366800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>323500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>280400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>233500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>199200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>185200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>153300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>132900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>111600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>507700</v>
+      </c>
+      <c r="E76" s="3">
         <v>405700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>528600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>478400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>429800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>376100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>334400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>290600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>260200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>229800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>204100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42763</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42399</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42035</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41671</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41307</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40936</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-95700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>68500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>66300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>65100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E83" s="3">
         <v>40100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37600</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26300</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E89" s="3">
         <v>83900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>121900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>96400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>118600</v>
       </c>
       <c r="H89" s="3">
         <v>118600</v>
       </c>
       <c r="I89" s="3">
+        <v>118600</v>
+      </c>
+      <c r="J89" s="3">
         <v>105400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>95400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>52700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>61700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-50400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-181600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34700</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-37400</v>
       </c>
       <c r="F94" s="3">
         <v>-37400</v>
       </c>
       <c r="G94" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-54300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-146500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50400</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-62500</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,44 +3761,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-25200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-23100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-18200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-16600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-41300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-56800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-64700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-91500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-47600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10600</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E102" s="3">
         <v>13600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-30700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OXM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>OXM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42763</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42399</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42035</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41671</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41307</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40936</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1411500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1142100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>748800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1122800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1107500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1086200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1022600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>969300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>920300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>849900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>855500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>758900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500800</v>
+      </c>
+      <c r="E9" s="3">
         <v>405800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>319600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>463000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>456400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>459700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>428100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>396700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>388400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>354500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>369500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>329100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>910800</v>
+      </c>
+      <c r="E10" s="3">
         <v>736300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>429200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>659800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>651100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>626500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>594500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>572500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>531900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>495400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>486000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>429800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +867,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,9 +906,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,60 +948,66 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>60500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>9100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1001,18 +1023,21 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1192800</v>
+      </c>
+      <c r="E17" s="3">
         <v>976600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>872700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1029100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1016900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>932700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>871800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>827500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>753600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>795700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>699100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E18" s="3">
         <v>165500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-123800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>93700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>90600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>86000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>89900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>97500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>59800</v>
       </c>
       <c r="N18" s="3">
         <v>59800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>59800</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,8 +1152,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1158,165 +1191,180 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E21" s="3">
         <v>205400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-83800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>134000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>133100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>128400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>132100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>133900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>130500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>130200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>86200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>86900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E23" s="3">
         <v>164600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-125900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>92400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>88300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>82900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>86500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>95100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>92400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="3">
         <v>33200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-30200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>165700</v>
+      </c>
+      <c r="E26" s="3">
         <v>131300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-95700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>68500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>66300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>54500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>58500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>165700</v>
+      </c>
+      <c r="E27" s="3">
         <v>131300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-95700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>68500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>66300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>54500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>58500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>55400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>29200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,9 +1527,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,36 +1542,39 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>11900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-2000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-28000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-8000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-10100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,9 +1653,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1626,48 +1695,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>165700</v>
+      </c>
+      <c r="E33" s="3">
         <v>131300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-95700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>68500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>66300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>65100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>52500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>165700</v>
+      </c>
+      <c r="E35" s="3">
         <v>131300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-95700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>68500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>66300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>65100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>52500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42763</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42399</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42035</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41671</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41307</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40936</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,25 +1907,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E41" s="3">
         <v>44900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6300</v>
       </c>
       <c r="I41" s="3">
         <v>6300</v>
@@ -1849,29 +1935,32 @@
         <v>6300</v>
       </c>
       <c r="K41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>164900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1887,8 +1976,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1899,188 +1988,203 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E43" s="3">
         <v>54300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>59100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>75300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>62800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>59700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>220100</v>
+      </c>
+      <c r="E44" s="3">
         <v>117700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>152200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>160700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>126800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>142200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>129100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>120600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>143700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>109600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>103400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E45" s="3">
         <v>18600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>70800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>92500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>330500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>258300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>288800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>269800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>236100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>231600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>216800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>258500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>271000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>222400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>215300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>11000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2094,87 +2198,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>418300</v>
+      </c>
+      <c r="E48" s="3">
         <v>347500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>393500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>478700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>192600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>193500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>193900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>184100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>292100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>141500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>128900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>93200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>404300</v>
+      </c>
+      <c r="E49" s="3">
         <v>179200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>180100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>241600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>242800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>245600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>235300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>161000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>309600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>190400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>181600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>181700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E52" s="3">
         <v>30600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>49500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1188700</v>
+      </c>
+      <c r="E54" s="3">
         <v>957600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>865600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1033400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>727300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>699900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>685200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>582700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>622400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>627300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>556100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>509200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,47 +2531,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E57" s="3">
         <v>80800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>71100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>81600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>68300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>76800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>68300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>75500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>90800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>89100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2468,103 +2601,112 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E59" s="3">
         <v>145400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>125100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>112300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>68800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>87200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>269600</v>
+      </c>
+      <c r="E60" s="3">
         <v>226200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>196300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>177800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>142200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>131400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>128900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>159900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>133000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>124300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>117600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>119000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2573,71 +2715,77 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>13000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>91500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>104800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>137600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>108600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>103400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E62" s="3">
         <v>223800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>263700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>327000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>93700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>70800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>93400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>84200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>632400</v>
+      </c>
+      <c r="E66" s="3">
         <v>450000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>459900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>504800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>248900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>270100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>309000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>248300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>331800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>367100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>326200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>305100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2925,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>370100</v>
+      </c>
+      <c r="E72" s="3">
         <v>331200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>236000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>366800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>323500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>280400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>233500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>199200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>185200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>153300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>132900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>111600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>556300</v>
+      </c>
+      <c r="E76" s="3">
         <v>507700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>405700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>528600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>478400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>429800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>376100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>334400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>290600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>260200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>229800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>204100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42763</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42399</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42035</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41671</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41307</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40936</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>165700</v>
+      </c>
+      <c r="E81" s="3">
         <v>131300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-95700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>68500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>66300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>65100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>52500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E83" s="3">
         <v>39900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>26300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E89" s="3">
         <v>198000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>83900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>121900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>96400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>118600</v>
       </c>
       <c r="I89" s="3">
         <v>118600</v>
       </c>
       <c r="J89" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K89" s="3">
         <v>105400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>67100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>61700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-49400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-73100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-35300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-151700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-181600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34700</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-37400</v>
       </c>
       <c r="G94" s="3">
         <v>-37400</v>
       </c>
       <c r="H94" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-54300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-146500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-62500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,47 +3994,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-25200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-23100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-16600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4159,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-38200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-35800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-41300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-56800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-64700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-91500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-47600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-10600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>44100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
